--- a/Code/Results/Cases/Case_5_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01011745532</v>
+        <v>0.8247512146706413</v>
       </c>
       <c r="C2">
-        <v>0.1014805794506515</v>
+        <v>0.1269536563588005</v>
       </c>
       <c r="D2">
-        <v>0.06917053970708764</v>
+        <v>0.1141464184771834</v>
       </c>
       <c r="E2">
-        <v>0.05227447761397208</v>
+        <v>0.1359348193696892</v>
       </c>
       <c r="F2">
-        <v>0.9373153583723308</v>
+        <v>2.061461219676183</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07218003273460027</v>
+        <v>0.1915216948784533</v>
       </c>
       <c r="K2">
-        <v>0.8149854852149474</v>
+        <v>0.4103022769977827</v>
       </c>
       <c r="L2">
-        <v>0.1362295412366663</v>
+        <v>0.2480145936239353</v>
       </c>
       <c r="M2">
-        <v>0.2081094107963004</v>
+        <v>0.2275832961207236</v>
       </c>
       <c r="N2">
-        <v>1.212304573966394</v>
+        <v>2.577820989056837</v>
       </c>
       <c r="O2">
-        <v>2.471807679623709</v>
+        <v>5.513561611086914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8861460302487956</v>
+        <v>0.7932138792439787</v>
       </c>
       <c r="C3">
-        <v>0.09849797033383112</v>
+        <v>0.1258845308745364</v>
       </c>
       <c r="D3">
-        <v>0.06301489952831929</v>
+        <v>0.1129672082034929</v>
       </c>
       <c r="E3">
-        <v>0.05168905166786786</v>
+        <v>0.1363442329701563</v>
       </c>
       <c r="F3">
-        <v>0.9236022268147366</v>
+        <v>2.069261271783283</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07375582146794102</v>
+        <v>0.1925720608257508</v>
       </c>
       <c r="K3">
-        <v>0.7084008521566574</v>
+        <v>0.3805653120325729</v>
       </c>
       <c r="L3">
-        <v>0.1257582198539993</v>
+        <v>0.2463367822807925</v>
       </c>
       <c r="M3">
-        <v>0.184729848167148</v>
+        <v>0.2221226912225589</v>
       </c>
       <c r="N3">
-        <v>1.261263479168951</v>
+        <v>2.599368906662593</v>
       </c>
       <c r="O3">
-        <v>2.456971130196507</v>
+        <v>5.540438367404761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8104569377187261</v>
+        <v>0.7741695568239493</v>
       </c>
       <c r="C4">
-        <v>0.09666722861853572</v>
+        <v>0.1252223891864332</v>
       </c>
       <c r="D4">
-        <v>0.05927756217911195</v>
+        <v>0.1122816244534945</v>
       </c>
       <c r="E4">
-        <v>0.05137524544895733</v>
+        <v>0.136631567762846</v>
       </c>
       <c r="F4">
-        <v>0.9164731418461045</v>
+        <v>2.074851106953439</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07477802097108288</v>
+        <v>0.1932567539111938</v>
       </c>
       <c r="K4">
-        <v>0.643133619267175</v>
+        <v>0.3624249812155966</v>
       </c>
       <c r="L4">
-        <v>0.1194329733764405</v>
+        <v>0.245391029691028</v>
       </c>
       <c r="M4">
-        <v>0.1704887016521823</v>
+        <v>0.218858270694863</v>
       </c>
       <c r="N4">
-        <v>1.292549918251696</v>
+        <v>2.6132754708032</v>
       </c>
       <c r="O4">
-        <v>2.451462516073875</v>
+        <v>5.559102859913082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7797097595697267</v>
+        <v>0.7664899202042648</v>
       </c>
       <c r="C5">
-        <v>0.09592113070371511</v>
+        <v>0.12495114369883</v>
       </c>
       <c r="D5">
-        <v>0.05776468619091446</v>
+        <v>0.1120119679781695</v>
       </c>
       <c r="E5">
-        <v>0.05125861588881442</v>
+        <v>0.136757723796336</v>
       </c>
       <c r="F5">
-        <v>0.9138817823450651</v>
+        <v>2.077330612572055</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07520817872880681</v>
+        <v>0.1935457884093479</v>
       </c>
       <c r="K5">
-        <v>0.6165720776689483</v>
+        <v>0.355062894433857</v>
       </c>
       <c r="L5">
-        <v>0.1168803588997207</v>
+        <v>0.2450269495041582</v>
       </c>
       <c r="M5">
-        <v>0.164711714845879</v>
+        <v>0.2175503693991701</v>
       </c>
       <c r="N5">
-        <v>1.305602213239292</v>
+        <v>2.619112601451909</v>
       </c>
       <c r="O5">
-        <v>2.450093317160039</v>
+        <v>5.567253082522043</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7746097360736144</v>
+        <v>0.7652196394221846</v>
       </c>
       <c r="C6">
-        <v>0.09579723262090312</v>
+        <v>0.1249060184150039</v>
       </c>
       <c r="D6">
-        <v>0.05751407117075047</v>
+        <v>0.1119677806586594</v>
       </c>
       <c r="E6">
-        <v>0.05123992253201948</v>
+        <v>0.1367792201069147</v>
       </c>
       <c r="F6">
-        <v>0.9134701354267563</v>
+        <v>2.077754517477224</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07528042367643639</v>
+        <v>0.1935943878545556</v>
       </c>
       <c r="K6">
-        <v>0.6121634394268511</v>
+        <v>0.3538422670270336</v>
       </c>
       <c r="L6">
-        <v>0.1164579729672255</v>
+        <v>0.2449677847190515</v>
       </c>
       <c r="M6">
-        <v>0.1637539806268755</v>
+        <v>0.217334549123759</v>
       </c>
       <c r="N6">
-        <v>1.307787674742938</v>
+        <v>2.620092128513724</v>
       </c>
       <c r="O6">
-        <v>2.449917997855323</v>
+        <v>5.568639312952044</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8100418934095046</v>
+        <v>0.7740656573687374</v>
       </c>
       <c r="C7">
-        <v>0.09665716696775917</v>
+        <v>0.1252187367955244</v>
       </c>
       <c r="D7">
-        <v>0.05925711868156469</v>
+        <v>0.1122779483257048</v>
       </c>
       <c r="E7">
-        <v>0.05137362729087869</v>
+        <v>0.136633232412148</v>
       </c>
       <c r="F7">
-        <v>0.9164369372065124</v>
+        <v>2.074883729765176</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07478376733221115</v>
+        <v>0.1932606113518416</v>
       </c>
       <c r="K7">
-        <v>0.6427752691998734</v>
+        <v>0.3623255704119401</v>
       </c>
       <c r="L7">
-        <v>0.1193984483774457</v>
+        <v>0.245386033126465</v>
       </c>
       <c r="M7">
-        <v>0.1704106872301985</v>
+        <v>0.2188405410870367</v>
       </c>
       <c r="N7">
-        <v>1.292724726841815</v>
+        <v>2.613353503564986</v>
       </c>
       <c r="O7">
-        <v>2.45144054382969</v>
+        <v>5.559210572027609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9672758450712422</v>
+        <v>0.8138111788691162</v>
       </c>
       <c r="C8">
-        <v>0.1004519244967526</v>
+        <v>0.1265862121456323</v>
       </c>
       <c r="D8">
-        <v>0.06703899258856438</v>
+        <v>0.113731877240312</v>
       </c>
       <c r="E8">
-        <v>0.05206300708169742</v>
+        <v>0.1360685374365325</v>
       </c>
       <c r="F8">
-        <v>0.9323125085051984</v>
+        <v>2.063984692217481</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07271193361699169</v>
+        <v>0.1918756185721264</v>
       </c>
       <c r="K8">
-        <v>0.7781930039708129</v>
+        <v>0.4000247124054113</v>
       </c>
       <c r="L8">
-        <v>0.1325966474907716</v>
+        <v>0.2474186143399777</v>
       </c>
       <c r="M8">
-        <v>0.2000230689736284</v>
+        <v>0.225682213939244</v>
       </c>
       <c r="N8">
-        <v>1.228927979472678</v>
+        <v>2.585110453701351</v>
       </c>
       <c r="O8">
-        <v>2.465926195983201</v>
+        <v>5.522380352461539</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279577042073612</v>
+        <v>0.8942635222009301</v>
       </c>
       <c r="C9">
-        <v>0.1079084327400324</v>
+        <v>0.1292221245128857</v>
       </c>
       <c r="D9">
-        <v>0.082659211825721</v>
+        <v>0.1168859981133679</v>
       </c>
       <c r="E9">
-        <v>0.05378804849302909</v>
+        <v>0.1352454212205476</v>
       </c>
       <c r="F9">
-        <v>0.9741999638631569</v>
+        <v>2.048951993145025</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0690893445185079</v>
+        <v>0.189474361527159</v>
       </c>
       <c r="K9">
-        <v>1.045581948661408</v>
+        <v>0.4748729671521801</v>
       </c>
       <c r="L9">
-        <v>0.1593644224706736</v>
+        <v>0.2520708131982659</v>
       </c>
       <c r="M9">
-        <v>0.2591082085323464</v>
+        <v>0.2397947410174375</v>
       </c>
       <c r="N9">
-        <v>1.113795088822679</v>
+        <v>2.535085119439039</v>
       </c>
       <c r="O9">
-        <v>2.524327035724383</v>
+        <v>5.467285822606669</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.51227902582167</v>
+        <v>0.9548754209506569</v>
       </c>
       <c r="C10">
-        <v>0.113411831024699</v>
+        <v>0.1311303396923549</v>
       </c>
       <c r="D10">
-        <v>0.09439217358595897</v>
+        <v>0.1193854585066418</v>
       </c>
       <c r="E10">
-        <v>0.0552991293897076</v>
+        <v>0.1348126362441224</v>
       </c>
       <c r="F10">
-        <v>1.012286087218342</v>
+        <v>2.041758068376566</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06670569885625532</v>
+        <v>0.1879008878294623</v>
       </c>
       <c r="K10">
-        <v>1.243812828014626</v>
+        <v>0.5304062477878517</v>
       </c>
       <c r="L10">
-        <v>0.1796600071679464</v>
+        <v>0.2558907208576002</v>
       </c>
       <c r="M10">
-        <v>0.3033037610021481</v>
+        <v>0.2505814126513215</v>
       </c>
       <c r="N10">
-        <v>1.035644880248158</v>
+        <v>2.501590564580017</v>
       </c>
       <c r="O10">
-        <v>2.587607226127574</v>
+        <v>5.437218911602628</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619046510364967</v>
+        <v>0.9827703845231497</v>
       </c>
       <c r="C11">
-        <v>0.115924817447798</v>
+        <v>0.1319921700580124</v>
       </c>
       <c r="D11">
-        <v>0.09979437697306537</v>
+        <v>0.1205615504127309</v>
       </c>
       <c r="E11">
-        <v>0.05604327569090195</v>
+        <v>0.1346528133410807</v>
       </c>
       <c r="F11">
-        <v>1.031377788952724</v>
+        <v>2.039318502097132</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06568387353452287</v>
+        <v>0.1872262501673756</v>
       </c>
       <c r="K11">
-        <v>1.334537245002821</v>
+        <v>0.5557838636922838</v>
       </c>
       <c r="L11">
-        <v>0.1890507197199156</v>
+        <v>0.2577149046963214</v>
       </c>
       <c r="M11">
-        <v>0.323619620602237</v>
+        <v>0.2555781344225139</v>
       </c>
       <c r="N11">
-        <v>1.00157465385159</v>
+        <v>2.487058976694136</v>
       </c>
       <c r="O11">
-        <v>2.621311161470942</v>
+        <v>5.425794931978061</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.659624671004508</v>
+        <v>0.9933792229523135</v>
       </c>
       <c r="C12">
-        <v>0.1168781240082524</v>
+        <v>0.1323176149255687</v>
       </c>
       <c r="D12">
-        <v>0.1018501261871165</v>
+        <v>0.1210124739079674</v>
       </c>
       <c r="E12">
-        <v>0.05633355673467477</v>
+        <v>0.1345975973790914</v>
       </c>
       <c r="F12">
-        <v>1.03887701277381</v>
+        <v>2.038514218647521</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06530612453041229</v>
+        <v>0.1869766811333822</v>
       </c>
       <c r="K12">
-        <v>1.368984692650656</v>
+        <v>0.5654098412547057</v>
       </c>
       <c r="L12">
-        <v>0.1926313088923237</v>
+        <v>0.2584180283318034</v>
       </c>
       <c r="M12">
-        <v>0.3313464879818042</v>
+        <v>0.2574830475074776</v>
       </c>
       <c r="N12">
-        <v>0.9888937588097981</v>
+        <v>2.481657566229471</v>
       </c>
       <c r="O12">
-        <v>2.634824810244737</v>
+        <v>5.421792477846651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.650878593387574</v>
+        <v>0.9910924023367613</v>
       </c>
       <c r="C13">
-        <v>0.1166727314826517</v>
+        <v>0.1322475653525288</v>
       </c>
       <c r="D13">
-        <v>0.1014069246181606</v>
+        <v>0.1209151129386328</v>
       </c>
       <c r="E13">
-        <v>0.05627065652563523</v>
+        <v>0.1346092535213987</v>
       </c>
       <c r="F13">
-        <v>1.037249670014518</v>
+        <v>2.03868212352468</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06538706722293597</v>
+        <v>0.1870301680483877</v>
       </c>
       <c r="K13">
-        <v>1.361561502405948</v>
+        <v>0.5633360107524368</v>
       </c>
       <c r="L13">
-        <v>0.1918590442456463</v>
+        <v>0.2582660505046945</v>
       </c>
       <c r="M13">
-        <v>0.3296808148213231</v>
+        <v>0.2570722251695159</v>
       </c>
       <c r="N13">
-        <v>0.9916148680009513</v>
+        <v>2.482816347841299</v>
       </c>
       <c r="O13">
-        <v>2.631880292679341</v>
+        <v>5.422640095642265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622381841369219</v>
+        <v>0.9836422698924707</v>
       </c>
       <c r="C14">
-        <v>0.116003210613485</v>
+        <v>0.1320189629658586</v>
       </c>
       <c r="D14">
-        <v>0.09996329889106903</v>
+        <v>0.1205985369893483</v>
       </c>
       <c r="E14">
-        <v>0.05606698520294096</v>
+        <v>0.1346481644901392</v>
       </c>
       <c r="F14">
-        <v>1.031989258070141</v>
+        <v>2.039249939166808</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06565261041227544</v>
+        <v>0.1872055997797712</v>
       </c>
       <c r="K14">
-        <v>1.337369332685284</v>
+        <v>0.5565754806284815</v>
       </c>
       <c r="L14">
-        <v>0.1893447946687488</v>
+        <v>0.2577725042204833</v>
       </c>
       <c r="M14">
-        <v>0.3242546194722991</v>
+        <v>0.2557345978480612</v>
       </c>
       <c r="N14">
-        <v>1.000526917970356</v>
+        <v>2.486612567618362</v>
       </c>
       <c r="O14">
-        <v>2.622407632745592</v>
+        <v>5.425459165962536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.604946500110799</v>
+        <v>0.9790847683079846</v>
       </c>
       <c r="C15">
-        <v>0.1155933405957867</v>
+        <v>0.1318788182047825</v>
       </c>
       <c r="D15">
-        <v>0.0990803679897283</v>
+        <v>0.120405347889438</v>
       </c>
       <c r="E15">
-        <v>0.05594334624086983</v>
+        <v>0.1346726888428531</v>
       </c>
       <c r="F15">
-        <v>1.028802696309</v>
+        <v>2.039613301070531</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06581646693448207</v>
+        <v>0.1873138249085429</v>
       </c>
       <c r="K15">
-        <v>1.322563330507251</v>
+        <v>0.5524365314189765</v>
       </c>
       <c r="L15">
-        <v>0.1878079938039932</v>
+        <v>0.2574717977945511</v>
       </c>
       <c r="M15">
-        <v>0.3209354087464291</v>
+        <v>0.2549169201065311</v>
       </c>
       <c r="N15">
-        <v>1.006014796427074</v>
+        <v>2.488951064576199</v>
       </c>
       <c r="O15">
-        <v>2.616704459377928</v>
+        <v>5.427228049842142</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.505321241239074</v>
+        <v>0.9530588430472733</v>
       </c>
       <c r="C16">
-        <v>0.1132478196447195</v>
+        <v>0.1310738903719226</v>
       </c>
       <c r="D16">
-        <v>0.09404049269982551</v>
+        <v>0.119309379640768</v>
       </c>
       <c r="E16">
-        <v>0.05525166725391806</v>
+        <v>0.1348238247091018</v>
       </c>
       <c r="F16">
-        <v>1.01107525364543</v>
+        <v>2.041934239770285</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06677375264807672</v>
+        <v>0.1879458036327897</v>
       </c>
       <c r="K16">
-        <v>1.23789591723758</v>
+        <v>0.5287500332149762</v>
       </c>
       <c r="L16">
-        <v>0.1790496346656383</v>
+        <v>0.2557732386474569</v>
       </c>
       <c r="M16">
-        <v>0.3019805997365665</v>
+        <v>0.2502566593887323</v>
       </c>
       <c r="N16">
-        <v>1.037901904019991</v>
+        <v>2.502554427055337</v>
       </c>
       <c r="O16">
-        <v>2.585507208500161</v>
+        <v>5.438010800516878</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.444449061048857</v>
+        <v>0.9371748148161316</v>
       </c>
       <c r="C17">
-        <v>0.1118115699214286</v>
+        <v>0.1305784869397613</v>
       </c>
       <c r="D17">
-        <v>0.09096580048301917</v>
+        <v>0.1186470068348271</v>
       </c>
       <c r="E17">
-        <v>0.05484210698100611</v>
+        <v>0.1349260156976371</v>
       </c>
       <c r="F17">
-        <v>1.000663215075292</v>
+        <v>2.043571226628131</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06737716850358666</v>
+        <v>0.1883440293786922</v>
       </c>
       <c r="K17">
-        <v>1.186104753466878</v>
+        <v>0.5142482622906925</v>
       </c>
       <c r="L17">
-        <v>0.1737184075980451</v>
+        <v>0.2547533138552325</v>
       </c>
       <c r="M17">
-        <v>0.2904088085805654</v>
+        <v>0.2474206351560539</v>
       </c>
       <c r="N17">
-        <v>1.057848278473852</v>
+        <v>2.511080260692047</v>
       </c>
       <c r="O17">
-        <v>2.567658324687784</v>
+        <v>5.445202510721742</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.409521596692571</v>
+        <v>0.9280691223756037</v>
       </c>
       <c r="C18">
-        <v>0.1109863462381497</v>
+        <v>0.1302929589112978</v>
       </c>
       <c r="D18">
-        <v>0.08920337364476438</v>
+        <v>0.1182697087638331</v>
       </c>
       <c r="E18">
-        <v>0.05461185934230706</v>
+        <v>0.1349882822222686</v>
       </c>
       <c r="F18">
-        <v>0.9948397295842</v>
+        <v>2.044591197991039</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06773010779228983</v>
+        <v>0.188576951782693</v>
       </c>
       <c r="K18">
-        <v>1.156366599019577</v>
+        <v>0.5059181076535992</v>
       </c>
       <c r="L18">
-        <v>0.1706667988370683</v>
+        <v>0.2541748263213108</v>
       </c>
       <c r="M18">
-        <v>0.2837726756879633</v>
+        <v>0.2457978915095183</v>
       </c>
       <c r="N18">
-        <v>1.069459778212877</v>
+        <v>2.516050477947426</v>
       </c>
       <c r="O18">
-        <v>2.557852204685219</v>
+        <v>5.449551142767632</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397709795853302</v>
+        <v>0.9249913313706486</v>
       </c>
       <c r="C19">
-        <v>0.110707079286108</v>
+        <v>0.1301961840352774</v>
       </c>
       <c r="D19">
-        <v>0.08860766457453906</v>
+        <v>0.1181425960818032</v>
       </c>
       <c r="E19">
-        <v>0.05453480556215418</v>
+        <v>0.1350099645243894</v>
       </c>
       <c r="F19">
-        <v>0.9928959174376857</v>
+        <v>2.044950019228509</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06785060915656516</v>
+        <v>0.188656481034073</v>
       </c>
       <c r="K19">
-        <v>1.146306098670408</v>
+        <v>0.5030995458198788</v>
       </c>
       <c r="L19">
-        <v>0.1696360610154741</v>
+        <v>0.2539803623138539</v>
       </c>
       <c r="M19">
-        <v>0.281529072743524</v>
+        <v>0.2452499164541138</v>
       </c>
       <c r="N19">
-        <v>1.073414853068288</v>
+        <v>2.517744710401814</v>
       </c>
       <c r="O19">
-        <v>2.554609758207079</v>
+        <v>5.451059967408156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.45092013460237</v>
+        <v>0.9388625577308005</v>
       </c>
       <c r="C20">
-        <v>0.1119643688825533</v>
+        <v>0.1306312841525923</v>
       </c>
       <c r="D20">
-        <v>0.0912924749174735</v>
+        <v>0.1187171369607185</v>
       </c>
       <c r="E20">
-        <v>0.0548851523898648</v>
+        <v>0.1349147763618301</v>
       </c>
       <c r="F20">
-        <v>1.001754382063851</v>
+        <v>2.043388852273722</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06731232483562621</v>
+        <v>0.1883012367841825</v>
       </c>
       <c r="K20">
-        <v>1.191612665394246</v>
+        <v>0.5157908784404128</v>
       </c>
       <c r="L20">
-        <v>0.1742843843787796</v>
+        <v>0.2548610441541683</v>
       </c>
       <c r="M20">
-        <v>0.2916385877623568</v>
+        <v>0.2477216600407814</v>
       </c>
       <c r="N20">
-        <v>1.055710524834254</v>
+        <v>2.510165800939893</v>
       </c>
       <c r="O20">
-        <v>2.569510444862431</v>
+        <v>5.444414987783176</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.630747882468995</v>
+        <v>0.9858293220304404</v>
       </c>
       <c r="C21">
-        <v>0.1161998163801314</v>
+        <v>0.1320861338978645</v>
       </c>
       <c r="D21">
-        <v>0.1003870479002558</v>
+        <v>0.1206913724859646</v>
       </c>
       <c r="E21">
-        <v>0.0561265753024589</v>
+        <v>0.1346365915861796</v>
       </c>
       <c r="F21">
-        <v>1.033526921815181</v>
+        <v>2.03907991604126</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06557436271653216</v>
+        <v>0.1871539111768268</v>
       </c>
       <c r="K21">
-        <v>1.344472550201687</v>
+        <v>0.5585607816496463</v>
       </c>
       <c r="L21">
-        <v>0.190082610146213</v>
+        <v>0.257917136427487</v>
       </c>
       <c r="M21">
-        <v>0.3258474824674522</v>
+        <v>0.2561271462420223</v>
       </c>
       <c r="N21">
-        <v>0.9979031765826285</v>
+        <v>2.485494774457386</v>
       </c>
       <c r="O21">
-        <v>2.625169247586769</v>
+        <v>5.424622359409966</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.749144813938955</v>
+        <v>1.016790395047991</v>
       </c>
       <c r="C22">
-        <v>0.1189779702478546</v>
+        <v>0.1330316413570216</v>
       </c>
       <c r="D22">
-        <v>0.1063898403923105</v>
+        <v>0.1220140491170127</v>
       </c>
       <c r="E22">
-        <v>0.05698756400997773</v>
+        <v>0.1344856958021605</v>
       </c>
       <c r="F22">
-        <v>1.055871596385529</v>
+        <v>2.036960355956722</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06449219846453325</v>
+        <v>0.1864384598889632</v>
       </c>
       <c r="K22">
-        <v>1.444918849691419</v>
+        <v>0.5866065384729779</v>
       </c>
       <c r="L22">
-        <v>0.2005515588683124</v>
+        <v>0.2599863816487584</v>
       </c>
       <c r="M22">
-        <v>0.3484030685740933</v>
+        <v>0.2616949394524823</v>
       </c>
       <c r="N22">
-        <v>0.9614134894739532</v>
+        <v>2.469961779551843</v>
       </c>
       <c r="O22">
-        <v>2.665943422145034</v>
+        <v>5.413572447943636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.685868789571231</v>
+        <v>1.000241827394717</v>
       </c>
       <c r="C23">
-        <v>0.1174941808357559</v>
+        <v>0.1325274984612435</v>
       </c>
       <c r="D23">
-        <v>0.1031803884066136</v>
+        <v>0.121305165601143</v>
       </c>
       <c r="E23">
-        <v>0.0565233816793711</v>
+        <v>0.1345634105645317</v>
       </c>
       <c r="F23">
-        <v>1.043795869206818</v>
+        <v>2.0380279522156</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06506478566019069</v>
+        <v>0.1868171676514301</v>
       </c>
       <c r="K23">
-        <v>1.391254417228254</v>
+        <v>0.5716296477593232</v>
       </c>
       <c r="L23">
-        <v>0.1949502960082086</v>
+        <v>0.2588754369871538</v>
       </c>
       <c r="M23">
-        <v>0.3363454401323551</v>
+        <v>0.2587165530826212</v>
       </c>
       <c r="N23">
-        <v>0.9807678981351238</v>
+        <v>2.478197968089438</v>
       </c>
       <c r="O23">
-        <v>2.643763927082972</v>
+        <v>5.419297617743752</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.447994349320794</v>
+        <v>0.9380994473481223</v>
       </c>
       <c r="C24">
-        <v>0.1118952869541019</v>
+        <v>0.1306074167562272</v>
       </c>
       <c r="D24">
-        <v>0.0911447690933187</v>
+        <v>0.1186854201971315</v>
       </c>
       <c r="E24">
-        <v>0.05486567534465969</v>
+        <v>0.1349198467134425</v>
       </c>
       <c r="F24">
-        <v>1.001260560382036</v>
+        <v>2.043471058101048</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06734162189912674</v>
+        <v>0.1883205709268303</v>
       </c>
       <c r="K24">
-        <v>1.189122423297931</v>
+        <v>0.5150934395015554</v>
       </c>
       <c r="L24">
-        <v>0.1740284647196759</v>
+        <v>0.2548123147316801</v>
       </c>
       <c r="M24">
-        <v>0.2910825530017789</v>
+        <v>0.2475855426182889</v>
       </c>
       <c r="N24">
-        <v>1.056676555116809</v>
+        <v>2.510579014498479</v>
       </c>
       <c r="O24">
-        <v>2.568671685996861</v>
+        <v>5.444770360198788</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19458338381267</v>
+        <v>0.8722330020121092</v>
       </c>
       <c r="C25">
-        <v>0.1058880709931245</v>
+        <v>0.1285139878669455</v>
       </c>
       <c r="D25">
-        <v>0.07839126141416131</v>
+        <v>0.1160005557348356</v>
       </c>
       <c r="E25">
-        <v>0.05327980918228192</v>
+        <v>0.1354378026511363</v>
       </c>
       <c r="F25">
-        <v>0.9616415666050528</v>
+        <v>2.052341478158652</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07002127198317432</v>
+        <v>0.1900903902012221</v>
       </c>
       <c r="K25">
-        <v>0.9729838553915613</v>
+        <v>0.454527943300036</v>
       </c>
       <c r="L25">
-        <v>0.152019277944639</v>
+        <v>0.2507413779841343</v>
       </c>
       <c r="M25">
-        <v>0.2429987995606737</v>
+        <v>0.2359030465529521</v>
       </c>
       <c r="N25">
-        <v>1.14383828262689</v>
+        <v>2.548045402632638</v>
       </c>
       <c r="O25">
-        <v>2.505108800067831</v>
+        <v>5.480359796643597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8247512146706413</v>
+        <v>1.010117455320028</v>
       </c>
       <c r="C2">
-        <v>0.1269536563588005</v>
+        <v>0.1014805794505378</v>
       </c>
       <c r="D2">
-        <v>0.1141464184771834</v>
+        <v>0.06917053970720843</v>
       </c>
       <c r="E2">
-        <v>0.1359348193696892</v>
+        <v>0.05227447761396498</v>
       </c>
       <c r="F2">
-        <v>2.061461219676183</v>
+        <v>0.9373153583723308</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1915216948784533</v>
+        <v>0.07218003273464291</v>
       </c>
       <c r="K2">
-        <v>0.4103022769977827</v>
+        <v>0.8149854852148906</v>
       </c>
       <c r="L2">
-        <v>0.2480145936239353</v>
+        <v>0.1362295412367303</v>
       </c>
       <c r="M2">
-        <v>0.2275832961207236</v>
+        <v>0.2081094107962969</v>
       </c>
       <c r="N2">
-        <v>2.577820989056837</v>
+        <v>1.212304573966382</v>
       </c>
       <c r="O2">
-        <v>5.513561611086914</v>
+        <v>2.471807679623652</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7932138792439787</v>
+        <v>0.8861460302487671</v>
       </c>
       <c r="C3">
-        <v>0.1258845308745364</v>
+        <v>0.09849797033391638</v>
       </c>
       <c r="D3">
-        <v>0.1129672082034929</v>
+        <v>0.06301489952830508</v>
       </c>
       <c r="E3">
-        <v>0.1363442329701563</v>
+        <v>0.05168905166785009</v>
       </c>
       <c r="F3">
-        <v>2.069261271783283</v>
+        <v>0.9236022268147437</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1925720608257508</v>
+        <v>0.07375582146789483</v>
       </c>
       <c r="K3">
-        <v>0.3805653120325729</v>
+        <v>0.7084008521566858</v>
       </c>
       <c r="L3">
-        <v>0.2463367822807925</v>
+        <v>0.125758219853914</v>
       </c>
       <c r="M3">
-        <v>0.2221226912225589</v>
+        <v>0.1847298481671622</v>
       </c>
       <c r="N3">
-        <v>2.599368906662593</v>
+        <v>1.261263479168999</v>
       </c>
       <c r="O3">
-        <v>5.540438367404761</v>
+        <v>2.456971130196564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7741695568239493</v>
+        <v>0.8104569377187545</v>
       </c>
       <c r="C4">
-        <v>0.1252223891864332</v>
+        <v>0.09666722861853572</v>
       </c>
       <c r="D4">
-        <v>0.1122816244534945</v>
+        <v>0.05927756217919722</v>
       </c>
       <c r="E4">
-        <v>0.136631567762846</v>
+        <v>0.05137524544900707</v>
       </c>
       <c r="F4">
-        <v>2.074851106953439</v>
+        <v>0.9164731418460903</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1932567539111938</v>
+        <v>0.07477802097116637</v>
       </c>
       <c r="K4">
-        <v>0.3624249812155966</v>
+        <v>0.6431336192672319</v>
       </c>
       <c r="L4">
-        <v>0.245391029691028</v>
+        <v>0.1194329733762558</v>
       </c>
       <c r="M4">
-        <v>0.218858270694863</v>
+        <v>0.170488701652193</v>
       </c>
       <c r="N4">
-        <v>2.6132754708032</v>
+        <v>1.292549918251703</v>
       </c>
       <c r="O4">
-        <v>5.559102859913082</v>
+        <v>2.451462516073931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7664899202042648</v>
+        <v>0.7797097595698688</v>
       </c>
       <c r="C5">
-        <v>0.12495114369883</v>
+        <v>0.09592113070371511</v>
       </c>
       <c r="D5">
-        <v>0.1120119679781695</v>
+        <v>0.05776468619092867</v>
       </c>
       <c r="E5">
-        <v>0.136757723796336</v>
+        <v>0.05125861588884639</v>
       </c>
       <c r="F5">
-        <v>2.077330612572055</v>
+        <v>0.913881782345058</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1935457884093479</v>
+        <v>0.0752081787289125</v>
       </c>
       <c r="K5">
-        <v>0.355062894433857</v>
+        <v>0.6165720776689767</v>
       </c>
       <c r="L5">
-        <v>0.2450269495041582</v>
+        <v>0.1168803588996994</v>
       </c>
       <c r="M5">
-        <v>0.2175503693991701</v>
+        <v>0.164711714845879</v>
       </c>
       <c r="N5">
-        <v>2.619112601451909</v>
+        <v>1.30560221323929</v>
       </c>
       <c r="O5">
-        <v>5.567253082522043</v>
+        <v>2.450093317160011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7652196394221846</v>
+        <v>0.7746097360736144</v>
       </c>
       <c r="C6">
-        <v>0.1249060184150039</v>
+        <v>0.09579723262098838</v>
       </c>
       <c r="D6">
-        <v>0.1119677806586594</v>
+        <v>0.05751407117087126</v>
       </c>
       <c r="E6">
-        <v>0.1367792201069147</v>
+        <v>0.05123992253200882</v>
       </c>
       <c r="F6">
-        <v>2.077754517477224</v>
+        <v>0.9134701354267492</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1935943878545556</v>
+        <v>0.07528042367649679</v>
       </c>
       <c r="K6">
-        <v>0.3538422670270336</v>
+        <v>0.6121634394267801</v>
       </c>
       <c r="L6">
-        <v>0.2449677847190515</v>
+        <v>0.116457972967126</v>
       </c>
       <c r="M6">
-        <v>0.217334549123759</v>
+        <v>0.1637539806268862</v>
       </c>
       <c r="N6">
-        <v>2.620092128513724</v>
+        <v>1.307787674742953</v>
       </c>
       <c r="O6">
-        <v>5.568639312952044</v>
+        <v>2.44991799785528</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7740656573687374</v>
+        <v>0.8100418934094762</v>
       </c>
       <c r="C7">
-        <v>0.1252187367955244</v>
+        <v>0.09665716696799365</v>
       </c>
       <c r="D7">
-        <v>0.1122779483257048</v>
+        <v>0.05925711868156469</v>
       </c>
       <c r="E7">
-        <v>0.136633232412148</v>
+        <v>0.05137362729088046</v>
       </c>
       <c r="F7">
-        <v>2.074883729765176</v>
+        <v>0.9164369372064982</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1932606113518416</v>
+        <v>0.07478376733230174</v>
       </c>
       <c r="K7">
-        <v>0.3623255704119401</v>
+        <v>0.6427752691998592</v>
       </c>
       <c r="L7">
-        <v>0.245386033126465</v>
+        <v>0.1193984483774884</v>
       </c>
       <c r="M7">
-        <v>0.2188405410870367</v>
+        <v>0.1704106872302233</v>
       </c>
       <c r="N7">
-        <v>2.613353503564986</v>
+        <v>1.292724726841811</v>
       </c>
       <c r="O7">
-        <v>5.559210572027609</v>
+        <v>2.451440543829676</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8138111788691162</v>
+        <v>0.9672758450712422</v>
       </c>
       <c r="C8">
-        <v>0.1265862121456323</v>
+        <v>0.1004519244967454</v>
       </c>
       <c r="D8">
-        <v>0.113731877240312</v>
+        <v>0.06703899258877755</v>
       </c>
       <c r="E8">
-        <v>0.1360685374365325</v>
+        <v>0.05206300708169564</v>
       </c>
       <c r="F8">
-        <v>2.063984692217481</v>
+        <v>0.9323125085051913</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1918756185721264</v>
+        <v>0.07271193361706096</v>
       </c>
       <c r="K8">
-        <v>0.4000247124054113</v>
+        <v>0.7781930039708413</v>
       </c>
       <c r="L8">
-        <v>0.2474186143399777</v>
+        <v>0.132596647490729</v>
       </c>
       <c r="M8">
-        <v>0.225682213939244</v>
+        <v>0.200023068973632</v>
       </c>
       <c r="N8">
-        <v>2.585110453701351</v>
+        <v>1.228927979472729</v>
       </c>
       <c r="O8">
-        <v>5.522380352461539</v>
+        <v>2.465926195983172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8942635222009301</v>
+        <v>1.279577042073782</v>
       </c>
       <c r="C9">
-        <v>0.1292221245128857</v>
+        <v>0.1079084327401745</v>
       </c>
       <c r="D9">
-        <v>0.1168859981133679</v>
+        <v>0.0826592118258489</v>
       </c>
       <c r="E9">
-        <v>0.1352454212205476</v>
+        <v>0.05378804849303265</v>
       </c>
       <c r="F9">
-        <v>2.048951993145025</v>
+        <v>0.9741999638631569</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.189474361527159</v>
+        <v>0.06908934451849369</v>
       </c>
       <c r="K9">
-        <v>0.4748729671521801</v>
+        <v>1.045581948661351</v>
       </c>
       <c r="L9">
-        <v>0.2520708131982659</v>
+        <v>0.1593644224706381</v>
       </c>
       <c r="M9">
-        <v>0.2397947410174375</v>
+        <v>0.2591082085323357</v>
       </c>
       <c r="N9">
-        <v>2.535085119439039</v>
+        <v>1.113795088822641</v>
       </c>
       <c r="O9">
-        <v>5.467285822606669</v>
+        <v>2.524327035724383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9548754209506569</v>
+        <v>1.512279025821528</v>
       </c>
       <c r="C10">
-        <v>0.1311303396923549</v>
+        <v>0.1134118310250614</v>
       </c>
       <c r="D10">
-        <v>0.1193854585066418</v>
+        <v>0.09439217358578134</v>
       </c>
       <c r="E10">
-        <v>0.1348126362441224</v>
+        <v>0.05529912938971826</v>
       </c>
       <c r="F10">
-        <v>2.041758068376566</v>
+        <v>1.012286087218342</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1879008878294623</v>
+        <v>0.06670569885627486</v>
       </c>
       <c r="K10">
-        <v>0.5304062477878517</v>
+        <v>1.243812828014626</v>
       </c>
       <c r="L10">
-        <v>0.2558907208576002</v>
+        <v>0.179660007167719</v>
       </c>
       <c r="M10">
-        <v>0.2505814126513215</v>
+        <v>0.3033037610021481</v>
       </c>
       <c r="N10">
-        <v>2.501590564580017</v>
+        <v>1.035644880248158</v>
       </c>
       <c r="O10">
-        <v>5.437218911602628</v>
+        <v>2.587607226127545</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9827703845231497</v>
+        <v>1.619046510365024</v>
       </c>
       <c r="C11">
-        <v>0.1319921700580124</v>
+        <v>0.1159248174478122</v>
       </c>
       <c r="D11">
-        <v>0.1205615504127309</v>
+        <v>0.09979437697299431</v>
       </c>
       <c r="E11">
-        <v>0.1346528133410807</v>
+        <v>0.05604327569090728</v>
       </c>
       <c r="F11">
-        <v>2.039318502097132</v>
+        <v>1.031377788952724</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1872262501673756</v>
+        <v>0.06568387353456018</v>
       </c>
       <c r="K11">
-        <v>0.5557838636922838</v>
+        <v>1.334537245002622</v>
       </c>
       <c r="L11">
-        <v>0.2577149046963214</v>
+        <v>0.1890507197198446</v>
       </c>
       <c r="M11">
-        <v>0.2555781344225139</v>
+        <v>0.3236196206022512</v>
       </c>
       <c r="N11">
-        <v>2.487058976694136</v>
+        <v>1.001574653851598</v>
       </c>
       <c r="O11">
-        <v>5.425794931978061</v>
+        <v>2.621311161470885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9933792229523135</v>
+        <v>1.659624671004593</v>
       </c>
       <c r="C12">
-        <v>0.1323176149255687</v>
+        <v>0.1168781240086147</v>
       </c>
       <c r="D12">
-        <v>0.1210124739079674</v>
+        <v>0.1018501261872444</v>
       </c>
       <c r="E12">
-        <v>0.1345975973790914</v>
+        <v>0.05633355673470852</v>
       </c>
       <c r="F12">
-        <v>2.038514218647521</v>
+        <v>1.038877012773796</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1869766811333822</v>
+        <v>0.06530612453041051</v>
       </c>
       <c r="K12">
-        <v>0.5654098412547057</v>
+        <v>1.368984692650713</v>
       </c>
       <c r="L12">
-        <v>0.2584180283318034</v>
+        <v>0.1926313088922953</v>
       </c>
       <c r="M12">
-        <v>0.2574830475074776</v>
+        <v>0.33134648798179</v>
       </c>
       <c r="N12">
-        <v>2.481657566229471</v>
+        <v>0.9888937588097786</v>
       </c>
       <c r="O12">
-        <v>5.421792477846651</v>
+        <v>2.634824810244794</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9910924023367613</v>
+        <v>1.650878593387716</v>
       </c>
       <c r="C13">
-        <v>0.1322475653525288</v>
+        <v>0.1166727314826446</v>
       </c>
       <c r="D13">
-        <v>0.1209151129386328</v>
+        <v>0.1014069246179901</v>
       </c>
       <c r="E13">
-        <v>0.1346092535213987</v>
+        <v>0.05627065652560503</v>
       </c>
       <c r="F13">
-        <v>2.03868212352468</v>
+        <v>1.037249670014518</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1870301680483877</v>
+        <v>0.06538706722294307</v>
       </c>
       <c r="K13">
-        <v>0.5633360107524368</v>
+        <v>1.361561502405948</v>
       </c>
       <c r="L13">
-        <v>0.2582660505046945</v>
+        <v>0.1918590442455894</v>
       </c>
       <c r="M13">
-        <v>0.2570722251695159</v>
+        <v>0.3296808148213088</v>
       </c>
       <c r="N13">
-        <v>2.482816347841299</v>
+        <v>0.9916148680009336</v>
       </c>
       <c r="O13">
-        <v>5.422640095642265</v>
+        <v>2.631880292679256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9836422698924707</v>
+        <v>1.62238184136902</v>
       </c>
       <c r="C14">
-        <v>0.1320189629658586</v>
+        <v>0.1160032106138331</v>
       </c>
       <c r="D14">
-        <v>0.1205985369893483</v>
+        <v>0.09996329889125377</v>
       </c>
       <c r="E14">
-        <v>0.1346481644901392</v>
+        <v>0.05606698520294273</v>
       </c>
       <c r="F14">
-        <v>2.039249939166808</v>
+        <v>1.031989258070126</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1872055997797712</v>
+        <v>0.06565261041226833</v>
       </c>
       <c r="K14">
-        <v>0.5565754806284815</v>
+        <v>1.337369332685256</v>
       </c>
       <c r="L14">
-        <v>0.2577725042204833</v>
+        <v>0.1893447946686919</v>
       </c>
       <c r="M14">
-        <v>0.2557345978480612</v>
+        <v>0.3242546194723062</v>
       </c>
       <c r="N14">
-        <v>2.486612567618362</v>
+        <v>1.000526917970388</v>
       </c>
       <c r="O14">
-        <v>5.425459165962536</v>
+        <v>2.62240763274562</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9790847683079846</v>
+        <v>1.604946500111026</v>
       </c>
       <c r="C15">
-        <v>0.1318788182047825</v>
+        <v>0.1155933405961491</v>
       </c>
       <c r="D15">
-        <v>0.120405347889438</v>
+        <v>0.09908036798977804</v>
       </c>
       <c r="E15">
-        <v>0.1346726888428531</v>
+        <v>0.05594334624087871</v>
       </c>
       <c r="F15">
-        <v>2.039613301070531</v>
+        <v>1.028802696309</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1873138249085429</v>
+        <v>0.06581646693441812</v>
       </c>
       <c r="K15">
-        <v>0.5524365314189765</v>
+        <v>1.322563330507222</v>
       </c>
       <c r="L15">
-        <v>0.2574717977945511</v>
+        <v>0.1878079938040429</v>
       </c>
       <c r="M15">
-        <v>0.2549169201065311</v>
+        <v>0.3209354087464362</v>
       </c>
       <c r="N15">
-        <v>2.488951064576199</v>
+        <v>1.006014796427133</v>
       </c>
       <c r="O15">
-        <v>5.427228049842142</v>
+        <v>2.616704459377956</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9530588430472733</v>
+        <v>1.505321241238931</v>
       </c>
       <c r="C16">
-        <v>0.1310738903719226</v>
+        <v>0.1132478196443856</v>
       </c>
       <c r="D16">
-        <v>0.119309379640768</v>
+        <v>0.09404049269957682</v>
       </c>
       <c r="E16">
-        <v>0.1348238247091018</v>
+        <v>0.05525166725394648</v>
       </c>
       <c r="F16">
-        <v>2.041934239770285</v>
+        <v>1.011075253645444</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1879458036327897</v>
+        <v>0.06677375264802876</v>
       </c>
       <c r="K16">
-        <v>0.5287500332149762</v>
+        <v>1.237895917237552</v>
       </c>
       <c r="L16">
-        <v>0.2557732386474569</v>
+        <v>0.1790496346656241</v>
       </c>
       <c r="M16">
-        <v>0.2502566593887323</v>
+        <v>0.3019805997365665</v>
       </c>
       <c r="N16">
-        <v>2.502554427055337</v>
+        <v>1.03790190402</v>
       </c>
       <c r="O16">
-        <v>5.438010800516878</v>
+        <v>2.585507208500161</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9371748148161316</v>
+        <v>1.444449061048971</v>
       </c>
       <c r="C17">
-        <v>0.1305784869397613</v>
+        <v>0.1118115699216702</v>
       </c>
       <c r="D17">
-        <v>0.1186470068348271</v>
+        <v>0.09096580048291969</v>
       </c>
       <c r="E17">
-        <v>0.1349260156976371</v>
+        <v>0.05484210698102032</v>
       </c>
       <c r="F17">
-        <v>2.043571226628131</v>
+        <v>1.000663215075306</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1883440293786922</v>
+        <v>0.06737716850351738</v>
       </c>
       <c r="K17">
-        <v>0.5142482622906925</v>
+        <v>1.18610475346685</v>
       </c>
       <c r="L17">
-        <v>0.2547533138552325</v>
+        <v>0.1737184075979741</v>
       </c>
       <c r="M17">
-        <v>0.2474206351560539</v>
+        <v>0.2904088085805441</v>
       </c>
       <c r="N17">
-        <v>2.511080260692047</v>
+        <v>1.057848278473909</v>
       </c>
       <c r="O17">
-        <v>5.445202510721742</v>
+        <v>2.567658324687756</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9280691223756037</v>
+        <v>1.409521596692656</v>
       </c>
       <c r="C18">
-        <v>0.1302929589112978</v>
+        <v>0.11098634623837</v>
       </c>
       <c r="D18">
-        <v>0.1182697087638331</v>
+        <v>0.08920337364476438</v>
       </c>
       <c r="E18">
-        <v>0.1349882822222686</v>
+        <v>0.05461185934228929</v>
       </c>
       <c r="F18">
-        <v>2.044591197991039</v>
+        <v>0.9948397295841858</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.188576951782693</v>
+        <v>0.06773010779225608</v>
       </c>
       <c r="K18">
-        <v>0.5059181076535992</v>
+        <v>1.156366599019577</v>
       </c>
       <c r="L18">
-        <v>0.2541748263213108</v>
+        <v>0.1706667988371251</v>
       </c>
       <c r="M18">
-        <v>0.2457978915095183</v>
+        <v>0.2837726756879633</v>
       </c>
       <c r="N18">
-        <v>2.516050477947426</v>
+        <v>1.069459778212931</v>
       </c>
       <c r="O18">
-        <v>5.449551142767632</v>
+        <v>2.557852204685219</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9249913313706486</v>
+        <v>1.39770979585353</v>
       </c>
       <c r="C19">
-        <v>0.1301961840352774</v>
+        <v>0.1107070792861293</v>
       </c>
       <c r="D19">
-        <v>0.1181425960818032</v>
+        <v>0.08860766457465274</v>
       </c>
       <c r="E19">
-        <v>0.1350099645243894</v>
+        <v>0.05453480556215595</v>
       </c>
       <c r="F19">
-        <v>2.044950019228509</v>
+        <v>0.9928959174376786</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.188656481034073</v>
+        <v>0.06785060915663088</v>
       </c>
       <c r="K19">
-        <v>0.5030995458198788</v>
+        <v>1.146306098670266</v>
       </c>
       <c r="L19">
-        <v>0.2539803623138539</v>
+        <v>0.1696360610154954</v>
       </c>
       <c r="M19">
-        <v>0.2452499164541138</v>
+        <v>0.281529072743524</v>
       </c>
       <c r="N19">
-        <v>2.517744710401814</v>
+        <v>1.073414853068282</v>
       </c>
       <c r="O19">
-        <v>5.451059967408156</v>
+        <v>2.554609758207079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9388625577308005</v>
+        <v>1.45092013460237</v>
       </c>
       <c r="C20">
-        <v>0.1306312841525923</v>
+        <v>0.1119643688823189</v>
       </c>
       <c r="D20">
-        <v>0.1187171369607185</v>
+        <v>0.09129247491735271</v>
       </c>
       <c r="E20">
-        <v>0.1349147763618301</v>
+        <v>0.05488515238986658</v>
       </c>
       <c r="F20">
-        <v>2.043388852273722</v>
+        <v>1.001754382063851</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1883012367841825</v>
+        <v>0.0673123248355747</v>
       </c>
       <c r="K20">
-        <v>0.5157908784404128</v>
+        <v>1.191612665394246</v>
       </c>
       <c r="L20">
-        <v>0.2548610441541683</v>
+        <v>0.1742843843787512</v>
       </c>
       <c r="M20">
-        <v>0.2477216600407814</v>
+        <v>0.291638587762364</v>
       </c>
       <c r="N20">
-        <v>2.510165800939893</v>
+        <v>1.055710524834263</v>
       </c>
       <c r="O20">
-        <v>5.444414987783176</v>
+        <v>2.569510444862431</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9858293220304404</v>
+        <v>1.630747882469279</v>
       </c>
       <c r="C21">
-        <v>0.1320861338978645</v>
+        <v>0.1161998163803659</v>
       </c>
       <c r="D21">
-        <v>0.1206913724859646</v>
+        <v>0.1003870479003126</v>
       </c>
       <c r="E21">
-        <v>0.1346365915861796</v>
+        <v>0.05612657530242871</v>
       </c>
       <c r="F21">
-        <v>2.03907991604126</v>
+        <v>1.033526921815181</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1871539111768268</v>
+        <v>0.06557436271659611</v>
       </c>
       <c r="K21">
-        <v>0.5585607816496463</v>
+        <v>1.344472550201687</v>
       </c>
       <c r="L21">
-        <v>0.257917136427487</v>
+        <v>0.1900826101462769</v>
       </c>
       <c r="M21">
-        <v>0.2561271462420223</v>
+        <v>0.325847482467438</v>
       </c>
       <c r="N21">
-        <v>2.485494774457386</v>
+        <v>0.9979031765825734</v>
       </c>
       <c r="O21">
-        <v>5.424622359409966</v>
+        <v>2.62516924758674</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.016790395047991</v>
+        <v>1.749144813938784</v>
       </c>
       <c r="C22">
-        <v>0.1330316413570216</v>
+        <v>0.1189779702473857</v>
       </c>
       <c r="D22">
-        <v>0.1220140491170127</v>
+        <v>0.1063898403923673</v>
       </c>
       <c r="E22">
-        <v>0.1344856958021605</v>
+        <v>0.05698756400997773</v>
       </c>
       <c r="F22">
-        <v>2.036960355956722</v>
+        <v>1.055871596385515</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1864384598889632</v>
+        <v>0.06449219846445153</v>
       </c>
       <c r="K22">
-        <v>0.5866065384729779</v>
+        <v>1.444918849691362</v>
       </c>
       <c r="L22">
-        <v>0.2599863816487584</v>
+        <v>0.200551558868284</v>
       </c>
       <c r="M22">
-        <v>0.2616949394524823</v>
+        <v>0.3484030685741004</v>
       </c>
       <c r="N22">
-        <v>2.469961779551843</v>
+        <v>0.9614134894739372</v>
       </c>
       <c r="O22">
-        <v>5.413572447943636</v>
+        <v>2.665943422145062</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000241827394717</v>
+        <v>1.685868789571174</v>
       </c>
       <c r="C23">
-        <v>0.1325274984612435</v>
+        <v>0.1174941808356493</v>
       </c>
       <c r="D23">
-        <v>0.121305165601143</v>
+        <v>0.1031803884066136</v>
       </c>
       <c r="E23">
-        <v>0.1345634105645317</v>
+        <v>0.0565233816793711</v>
       </c>
       <c r="F23">
-        <v>2.0380279522156</v>
+        <v>1.043795869206804</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1868171676514301</v>
+        <v>0.06506478566022089</v>
       </c>
       <c r="K23">
-        <v>0.5716296477593232</v>
+        <v>1.391254417228197</v>
       </c>
       <c r="L23">
-        <v>0.2588754369871538</v>
+        <v>0.1949502960081517</v>
       </c>
       <c r="M23">
-        <v>0.2587165530826212</v>
+        <v>0.336345440132348</v>
       </c>
       <c r="N23">
-        <v>2.478197968089438</v>
+        <v>0.9807678981351167</v>
       </c>
       <c r="O23">
-        <v>5.419297617743752</v>
+        <v>2.643763927082944</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9380994473481223</v>
+        <v>1.44799434932068</v>
       </c>
       <c r="C24">
-        <v>0.1306074167562272</v>
+        <v>0.1118952869540948</v>
       </c>
       <c r="D24">
-        <v>0.1186854201971315</v>
+        <v>0.09114476909336844</v>
       </c>
       <c r="E24">
-        <v>0.1349198467134425</v>
+        <v>0.05486567534464193</v>
       </c>
       <c r="F24">
-        <v>2.043471058101048</v>
+        <v>1.001260560382022</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1883205709268303</v>
+        <v>0.0673416218990095</v>
       </c>
       <c r="K24">
-        <v>0.5150934395015554</v>
+        <v>1.189122423297988</v>
       </c>
       <c r="L24">
-        <v>0.2548123147316801</v>
+        <v>0.1740284647196191</v>
       </c>
       <c r="M24">
-        <v>0.2475855426182889</v>
+        <v>0.2910825530017647</v>
       </c>
       <c r="N24">
-        <v>2.510579014498479</v>
+        <v>1.056676555116804</v>
       </c>
       <c r="O24">
-        <v>5.444770360198788</v>
+        <v>2.56867168599689</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8722330020121092</v>
+        <v>1.194583383812642</v>
       </c>
       <c r="C25">
-        <v>0.1285139878669455</v>
+        <v>0.1058880709926555</v>
       </c>
       <c r="D25">
-        <v>0.1160005557348356</v>
+        <v>0.0783912614142892</v>
       </c>
       <c r="E25">
-        <v>0.1354378026511363</v>
+        <v>0.05327980918226594</v>
       </c>
       <c r="F25">
-        <v>2.052341478158652</v>
+        <v>0.9616415666050386</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1900903902012221</v>
+        <v>0.07002127198322228</v>
       </c>
       <c r="K25">
-        <v>0.454527943300036</v>
+        <v>0.9729838553916466</v>
       </c>
       <c r="L25">
-        <v>0.2507413779841343</v>
+        <v>0.1520192779446177</v>
       </c>
       <c r="M25">
-        <v>0.2359030465529521</v>
+        <v>0.2429987995606737</v>
       </c>
       <c r="N25">
-        <v>2.548045402632638</v>
+        <v>1.143838282626893</v>
       </c>
       <c r="O25">
-        <v>5.480359796643597</v>
+        <v>2.505108800067887</v>
       </c>
     </row>
   </sheetData>
